--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据项" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="134">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,10 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>别名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>简述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -394,6 +390,93 @@
   </si>
   <si>
     <t>相关联的处理（处理逻辑）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试题文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字、字母、","、"?","."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音频路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四六级试题的长文本题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四六级试题的长文本选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四六级试题的短文本答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四六级试题的音频路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"/TABLE[01]/[01][xxxxx].格式"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方括号内为可变部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F021</t>
+  </si>
+  <si>
+    <t>短对话试题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有一段对话和一个问题的题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID004+ID005+ID007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -755,13 +838,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -781,122 +867,173 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -910,177 +1047,188 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1094,7 +1242,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1104,125 +1252,125 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>68</v>
-      </c>
-      <c r="H1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1384,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1246,100 +1394,100 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>107</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>108</v>
-      </c>
-      <c r="G1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1350,10 +1498,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1366,19 +1514,124 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
         <v>110</v>
       </c>
-      <c r="D1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>111</v>
       </c>
-      <c r="F1" t="s">
-        <v>112</v>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
